--- a/MedPortalRX.xlsx
+++ b/MedPortalRX.xlsx
@@ -1,36 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ComputerOne\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sfaul\Desktop\MidTermProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D13286C9-79F1-434B-BB8B-98F2EC322A32}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B5052461-7758-430F-8097-92ED2B8DA9DC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{962822F5-0CA6-448D-A1CD-8309DBEC1073}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>social</t>
   </si>
@@ -48,6 +43,33 @@
   </si>
   <si>
     <t>refills avail</t>
+  </si>
+  <si>
+    <t>812-121-0912</t>
+  </si>
+  <si>
+    <t>Lozol</t>
+  </si>
+  <si>
+    <t>Prozac</t>
+  </si>
+  <si>
+    <t>503-388-1908</t>
+  </si>
+  <si>
+    <t>Kezvara</t>
+  </si>
+  <si>
+    <t>Diuril</t>
+  </si>
+  <si>
+    <t>Anafril</t>
+  </si>
+  <si>
+    <t>810-225-7205</t>
+  </si>
+  <si>
+    <t>Zaraoxolyn</t>
   </si>
 </sst>
 </file>
@@ -98,9 +120,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,15 +438,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFD022A-E62E-44C6-A0F1-E9E47C6F6FDD}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -447,6 +473,126 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>9382398232</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43104</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43469</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>11212435324</v>
+      </c>
+      <c r="D3" s="2">
+        <v>42883</v>
+      </c>
+      <c r="E3" s="2">
+        <v>43982</v>
+      </c>
+      <c r="F3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>4739518341</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43004</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43391</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>47394710247</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43364</v>
+      </c>
+      <c r="E5" s="2">
+        <v>43729</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>430983092</v>
+      </c>
+      <c r="D6" s="2">
+        <v>41339</v>
+      </c>
+      <c r="E6" s="2">
+        <v>43449</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>28737124212</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43202</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43567</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
